--- a/wz/expdata/1000.xlsx
+++ b/wz/expdata/1000.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobethier/Documents/wz-dev/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A94D0C-BAF1-E947-82AC-799F7432F280}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{8B52DC69-A268-834E-8585-7A0BC314D597}"/>
+    <workbookView xWindow="435" yWindow="465" windowWidth="28035" windowHeight="16335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>cms</t>
   </si>
@@ -85,12 +84,24 @@
   </si>
   <si>
     <t>norm_c</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>pp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -438,361 +449,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1A8D7C-8C66-C441-8BCB-F5877C011B26}">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="15" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
         <v>510</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>-0.312</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M2" s="1">
-        <f>0.033*G2</f>
+      <c r="O2" s="1">
+        <f>0.033*I2</f>
         <v>-1.0296000000000001E-2</v>
       </c>
-      <c r="N2">
-        <f>SQRT(I2*I2-L2*L2-M2*M2)</f>
+      <c r="P2">
+        <f>SQRT(K2*K2-N2*N2-O2*O2)</f>
         <v>1.2569502138111916E-2</v>
       </c>
-      <c r="O2">
-        <f>SQRT(L2*L2+M2*M2)</f>
+      <c r="Q2">
+        <f>SQRT(N2*N2+O2*O2)</f>
         <v>1.1445855843928841E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
         <v>510</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D3" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>-0.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>50</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>-0.251</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>0.03</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M7" si="0">0.033*G3</f>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O7" si="0">0.033*I3</f>
         <v>-8.2830000000000004E-3</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N7" si="1">SQRT(I3*I3-L3*L3-M3*M3)</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P7" si="1">SQRT(K3*K3-N3*N3-O3*O3)</f>
         <v>1.0118888822395471E-2</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O7" si="2">SQRT(L3*L3+M3*M3)</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q7" si="2">SQRT(N3*N3+O3*O3)</f>
         <v>9.6751273376633144E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
         <v>510</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D4" s="1">
         <v>-0.5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>-1.0923E-2</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <f t="shared" si="1"/>
         <v>7.1894416333954615E-3</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <f t="shared" si="2"/>
         <v>1.2012990010817457E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
         <v>510</v>
       </c>
-      <c r="B5" s="1">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>0.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>-0.41199999999999998</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <f t="shared" si="0"/>
         <v>-1.3596E-2</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <f t="shared" si="1"/>
         <v>6.7932896302159802E-3</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <f t="shared" si="2"/>
         <v>1.4486242300886729E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
         <v>510</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D6" s="1">
         <v>0.5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>-0.53400000000000003</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <f t="shared" si="0"/>
         <v>-1.7622000000000002E-2</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <f t="shared" si="1"/>
         <v>1.2184626215030145E-2</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <f t="shared" si="2"/>
         <v>1.8317611307154657E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
         <v>510</v>
       </c>
-      <c r="B7" s="1">
+      <c r="D7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>-0.48199999999999998</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <f t="shared" si="0"/>
         <v>-1.5906E-2</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>1.4352670970937776E-2</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <f t="shared" si="2"/>
         <v>1.6673357070488233E-2</v>
       </c>

--- a/wz/expdata/1000.xlsx
+++ b/wz/expdata/1000.xlsx
@@ -62,9 +62,6 @@
     <t>eta</t>
   </si>
   <si>
-    <t>observable</t>
-  </si>
-  <si>
     <t>A_L</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>pp</t>
+  </si>
+  <si>
+    <t>obs</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -463,10 +463,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -493,33 +493,33 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>510</v>
@@ -537,7 +537,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1">
         <v>-0.312</v>
@@ -549,7 +549,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>9</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>510</v>
@@ -593,7 +593,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1">
         <v>-0.251</v>
@@ -605,7 +605,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>9</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>510</v>
@@ -649,7 +649,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1">
         <v>-0.33100000000000002</v>
@@ -661,7 +661,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>9</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>510</v>
@@ -705,7 +705,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1">
         <v>-0.41199999999999998</v>
@@ -717,7 +717,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>9</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>510</v>
@@ -761,7 +761,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1">
         <v>-0.53400000000000003</v>
@@ -773,7 +773,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>9</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>510</v>
@@ -817,7 +817,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1">
         <v>-0.48199999999999998</v>
@@ -829,7 +829,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>9</v>

--- a/wz/expdata/1000.xlsx
+++ b/wz/expdata/1000.xlsx
@@ -86,9 +86,6 @@
     <t>col</t>
   </si>
   <si>
-    <t>tar</t>
-  </si>
-  <si>
     <t>STAR</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>obs</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -516,10 +516,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>510</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>510</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>510</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>510</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>510</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>510</v>
